--- a/QA/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/QA/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T12:00:57+00:00</t>
+    <t>2025-02-10T15:32:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/QA/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/QA/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T15:32:56+00:00</t>
+    <t>2025-02-11T14:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/QA/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/QA/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T14:20:31+00:00</t>
+    <t>2025-02-12T09:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/QA/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/QA/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T09:49:49+00:00</t>
+    <t>2025-02-12T13:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
